--- a/content/excel/Fichas década7 (1950).xlsx
+++ b/content/excel/Fichas década7 (1950).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="3855" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="10005" yWindow="3855" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="362">
   <si>
     <t>Grabación de campo, voz en off, conducción, música de época</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Inglés / Español</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reproductor DVD y monitor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Color / Blanco y negro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Encuesta alimentaria en Rofrano</t>
   </si>
   <si>
@@ -71,9 +63,6 @@
     <t>Libio Bartoli</t>
   </si>
   <si>
-    <t>Istituto Nazionale LUCE/Istituto Nazionale della Nutrizione del Consiglio Nazionale delle RicercheNR</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -91,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Francia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +93,6 @@
   </si>
   <si>
     <t>Hanns Eisler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consejeros de Historia: Olga Wormser y Henri Michel / Efectos especiales: Henry Ferrand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>38´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lindsay Anderson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,9 +497,6 @@
     <t>Hice un hermoso viaje</t>
   </si>
   <si>
-    <t>J' ai fait un beau voyage</t>
-  </si>
-  <si>
     <t>27' 24''</t>
   </si>
   <si>
@@ -567,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>53´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Karel Reisz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alain Resnais</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +775,6 @@
     <t>MXIM-AV-1-7-2</t>
   </si>
   <si>
-    <t>36´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inchiesta Alimentare a Rofrano (Encuesta alimentaria en Rofrano)</t>
   </si>
   <si>
@@ -841,9 +803,6 @@
   <si>
     <t>Philippe Luzuy</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai fait un beau voyage (Hice un hermoso viaje)</t>
   </si>
   <si>
     <t>MXIM-AV-1-7-5</t>
@@ -1055,26 +1014,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Toute la mèmoire du monde</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Le chant du styrene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MXIM-AV-1-7-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Francia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13´11"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alain Resnais, Robert Hessens</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,10 +1048,6 @@
     <t>MXIM-AV-1-7-12</t>
   </si>
   <si>
-    <t>MXIM-AV-1-7-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No. copias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1121,10 +1064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 vhs / 1 dvd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> copia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,10 +1096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Raymond Queneau</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,26 +1194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Francés</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portugués</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DVD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blanco y negro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reproductor DVD y monitor de TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Forma parte de la edición Obras documentais de Alain Resnais  MXIM-AV-1-12-32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1316,9 +1231,6 @@
   </si>
   <si>
     <t>Francia: París Biblioteca Nacional</t>
-  </si>
-  <si>
-    <t>Maurice Jarre /</t>
   </si>
   <si>
     <t xml:space="preserve">Director de Orquesta: Georges Delerue </t>
@@ -1426,9 +1338,6 @@
     <t xml:space="preserve">George McClellan Sebree III (26 agosto 1932-7 marzo 2010),  más conocido como Mac Sebree , era periodista, escritor y editor, cuyo campo de especialización era el transporte urbano público , especialmente el tránsito ferroviario . Él también era propietario y presidente de la editorial, Interurbano Press ., desde 1975 hasta 1993. Además de la escritura y la publicación de material histórico, también siguió los desarrollos contemporáneos en materia de transporte ferroviario, y por la década de 1990 se había convertido en un experto en el tren ligero en América del Norte. </t>
   </si>
   <si>
-    <t>1992-1993 aprox</t>
-  </si>
-  <si>
     <t>Vitaly Uzoff</t>
   </si>
   <si>
@@ -1488,7 +1397,76 @@
     <t>Francia</t>
   </si>
   <si>
-    <t>1 vhs / 4 dvd</t>
+    <t>21'</t>
+  </si>
+  <si>
+    <t>38'</t>
+  </si>
+  <si>
+    <t>36'</t>
+  </si>
+  <si>
+    <t>18'</t>
+  </si>
+  <si>
+    <t>31'</t>
+  </si>
+  <si>
+    <t>53'</t>
+  </si>
+  <si>
+    <t>13'11''</t>
+  </si>
+  <si>
+    <t>19'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992-1993 </t>
+  </si>
+  <si>
+    <t>Maurice Jarre</t>
+  </si>
+  <si>
+    <t>Consejeros de Historia: Olga Wormser y Henri Michel,  Efectos especiales: Henry Ferrand</t>
+  </si>
+  <si>
+    <t>J'ai fait un beau voyage</t>
+  </si>
+  <si>
+    <t>Istituto Nazionale LUCE, Istituto Nazionale della Nutrizione del Consiglio Nazionale delle RicercheNR</t>
+  </si>
+  <si>
+    <t>1 vhs, 1 dvd</t>
+  </si>
+  <si>
+    <t>1 vhs, 4 dvd</t>
+  </si>
+  <si>
+    <t>Color, Blanco y negro</t>
+  </si>
+  <si>
+    <t>Inglés, Español</t>
+  </si>
+  <si>
+    <t>J'ai fait un beau voyage (Hice un hermoso viaje)</t>
+  </si>
+  <si>
+    <t>Úrsula Mares, Esteban Terán (Área de contexto), Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t>Esteban Terán (Área de contexto),  Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t>Última modificación: 03/2015</t>
+  </si>
+  <si>
+    <t>Última modificación: 11/03/2013,  03/2015</t>
+  </si>
+  <si>
+    <t>Última modificación: 11/03/2013, 03/2015</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,12 +1629,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,7 +1732,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1861,11 +1833,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1880,7 +1847,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2270,7 +2237,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2304,13 +2271,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2335,35 +2302,35 @@
     </row>
     <row r="2" spans="1:26" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="T2" s="70"/>
-      <c r="U2" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="V2" s="70"/>
+      <c r="J2" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="V2" s="67"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13"/>
@@ -2371,187 +2338,187 @@
     </row>
     <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="T3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4" s="17">
         <v>1956</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="17" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="U4" s="49" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="17" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="17">
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H5" s="17">
         <v>1957</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
@@ -2559,42 +2526,42 @@
     </row>
     <row r="6" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" s="17">
         <v>1954</v>
       </c>
       <c r="I6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>10</v>
-      </c>
       <c r="L6" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
@@ -2602,7 +2569,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="17" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
@@ -2611,45 +2578,45 @@
     </row>
     <row r="7" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="17" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="H7" s="17">
         <v>1959</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
@@ -2659,233 +2626,233 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" s="56" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="58" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="54" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H8" s="54">
         <v>1955</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="55"/>
+        <v>340</v>
+      </c>
+      <c r="J8" s="57"/>
       <c r="K8" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
       <c r="R8" s="54" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="S8" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-    </row>
-    <row r="9" spans="1:26" s="56" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+    </row>
+    <row r="9" spans="1:26" s="58" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="54" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H9" s="54">
         <v>1953</v>
       </c>
-      <c r="I9" s="54">
-        <v>18</v>
-      </c>
-      <c r="J9" s="55"/>
+      <c r="I9" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="J9" s="57"/>
       <c r="K9" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
+        <v>200</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
       <c r="R9" s="54" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="S9" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
+        <v>204</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
       <c r="V9" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
     </row>
     <row r="10" spans="1:26" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H10" s="17">
         <v>1958</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="17" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="17" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="T10" s="18"/>
       <c r="U10" s="17" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H11" s="17">
         <v>1956</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="17" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="49" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="17" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="17" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -2894,7 +2861,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="49" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -2907,149 +2874,149 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" s="56" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="58" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+        <v>66</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F13" s="54">
         <v>2</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H13" s="54">
         <v>1958</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+        <v>343</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+        <v>130</v>
+      </c>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="55"/>
+        <v>131</v>
+      </c>
+      <c r="Q13" s="57"/>
       <c r="R13" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
       <c r="U13" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="V13" s="55"/>
+        <v>186</v>
+      </c>
+      <c r="V13" s="57"/>
       <c r="W13" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-    </row>
-    <row r="14" spans="1:26" s="56" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+    </row>
+    <row r="14" spans="1:26" s="58" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+        <v>245</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="54" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H14" s="54">
         <v>1950</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="J14" s="55"/>
+        <v>344</v>
+      </c>
+      <c r="J14" s="57"/>
       <c r="K14" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
+        <v>248</v>
+      </c>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
       <c r="U14" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="V14" s="55"/>
+        <v>249</v>
+      </c>
+      <c r="V14" s="57"/>
       <c r="W14" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
+        <v>250</v>
+      </c>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H15" s="17">
         <v>1958</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="17" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="17" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="17" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="17" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
@@ -3086,9 +3053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3105,13 +3072,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -3120,11 +3087,11 @@
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="21"/>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -3132,101 +3099,101 @@
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I6" s="17">
         <v>1999</v>
@@ -3234,154 +3201,154 @@
     </row>
     <row r="7" spans="1:9" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="42" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="234.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="254.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="263.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="224.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="52" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="44"/>
@@ -3391,17 +3358,17 @@
     </row>
     <row r="14" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -3410,17 +3377,17 @@
     </row>
     <row r="15" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3458,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A13" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3479,13 +3446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="A1" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -3498,397 +3465,397 @@
       <c r="A2" s="29"/>
       <c r="B2" s="10"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="76"/>
+      <c r="D2" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="186" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="F4" s="17">
         <v>1956</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="49" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F5" s="17">
         <v>1957</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="17" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="61" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="58" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="56" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="58" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:13" s="58" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-    </row>
-    <row r="9" spans="1:13" s="56" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="54" t="s">
-        <v>83</v>
-      </c>
       <c r="J9" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+        <v>52</v>
+      </c>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>358</v>
+        <v>63</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>334</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="F10" s="59">
+        <v>331</v>
+      </c>
+      <c r="F10" s="56">
         <v>1958</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:13" s="61" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="57" t="s">
+    <row r="11" spans="1:13" s="58" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-    </row>
-    <row r="12" spans="1:13" s="56" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" s="58" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+        <v>216</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="54" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-    </row>
-    <row r="13" spans="1:13" s="56" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" s="58" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+        <v>66</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="55"/>
+        <v>55</v>
+      </c>
+      <c r="F13" s="57"/>
       <c r="G13" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+        <v>31</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-    </row>
-    <row r="14" spans="1:13" s="56" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" s="58" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="63"/>
+        <v>300</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="17" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="M15" s="46"/>
     </row>
@@ -3918,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3941,13 +3908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="A1" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="31"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3964,214 +3931,214 @@
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
     </row>
     <row r="3" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>247</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="17" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
@@ -4179,15 +4146,15 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -4196,83 +4163,83 @@
     </row>
     <row r="9" spans="1:17" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17" t="s">
@@ -4280,207 +4247,170 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>2</v>
+        <v>354</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="18"/>
       <c r="O13" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N14" s="18"/>
       <c r="O14" s="17" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="47"/>
     </row>
-    <row r="15" spans="1:17" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="17" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="P15" s="46"/>
       <c r="Q15" s="47"/>
-    </row>
-    <row r="16" spans="1:17" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4507,7 +4437,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4520,13 +4450,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="A1" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
@@ -4537,27 +4467,27 @@
     </row>
     <row r="3" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="17"/>
@@ -4565,10 +4495,10 @@
     </row>
     <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -4576,10 +4506,10 @@
     </row>
     <row r="6" spans="1:5" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4587,10 +4517,10 @@
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -4598,10 +4528,10 @@
     </row>
     <row r="8" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -4609,10 +4539,10 @@
     </row>
     <row r="9" spans="1:5" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -4620,10 +4550,10 @@
     </row>
     <row r="10" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -4631,10 +4561,10 @@
     </row>
     <row r="11" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -4642,10 +4572,10 @@
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -4653,10 +4583,10 @@
     </row>
     <row r="13" spans="1:5" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -4664,27 +4594,27 @@
     </row>
     <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="17" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="17" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -4710,8 +4640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4722,11 +4652,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="80"/>
+      <c r="A1" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
@@ -4735,124 +4665,124 @@
     </row>
     <row r="3" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -4878,7 +4808,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4892,14 +4822,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="80"/>
+      <c r="A1" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -4911,209 +4841,213 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="16" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>246</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="16" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="16" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="16" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="16" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="16" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="16" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="16" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="E12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="17" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F14" s="48">
         <v>39890</v>
@@ -5121,17 +5055,17 @@
     </row>
     <row r="15" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="17" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="F15" s="48">
         <v>39890</v>

--- a/content/excel/Fichas década7 (1950).xlsx
+++ b/content/excel/Fichas década7 (1950).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="3855" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="10005" yWindow="3855" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="359">
   <si>
     <t>Grabación de campo, voz en off, conducción, música de época</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -640,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Se corta a los 80´</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alain Resnais</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -920,9 +916,6 @@
   </si>
   <si>
     <t>Esteban Terán (Área de contexto)</t>
-  </si>
-  <si>
-    <t>Última modificación: 11/03/2013</t>
   </si>
   <si>
     <t>Idioma original</t>
@@ -1319,9 +1312,6 @@
     <t>Situado en Italia Central se encuentra el pueblo de Rofrano, pobre, desnutrido y alejado de la modernidad.  Este documental muestra los esfuerzos del Instituto Nacional de la Nutrición para llevar a Rofrano educación acerca de cuestiones de alimentación basándose en una investigación del Dr. Sabato Visco director del mismo instituto. A la par de esta problemática podemos presenciar la vida de un pueblo de Italia en los años cincuenta, sus tradiciones, su relación con la agricultura, el trabajo y la economía del país.</t>
   </si>
   <si>
-    <t>20' 50''</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interurban Films </t>
   </si>
   <si>
@@ -1460,13 +1450,13 @@
     <t xml:space="preserve"> Penélope Ubaldo</t>
   </si>
   <si>
-    <t>Última modificación: 03/2015</t>
-  </si>
-  <si>
-    <t>Última modificación: 11/03/2013,  03/2015</t>
-  </si>
-  <si>
-    <t>Última modificación: 11/03/2013, 03/2015</t>
+    <t>Se corta a los 80'</t>
+  </si>
+  <si>
+    <t>Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t>20'50''</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1722,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1897,6 +1887,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2236,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2297,7 @@
     <row r="2" spans="1:26" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="64"/>
@@ -2313,7 +2307,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="66"/>
@@ -2324,11 +2318,11 @@
       <c r="Q2" s="66"/>
       <c r="R2" s="67"/>
       <c r="S2" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V2" s="67"/>
       <c r="W2" s="12"/>
@@ -2338,16 +2332,16 @@
     </row>
     <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>93</v>
@@ -2421,7 +2415,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2434,11 +2428,11 @@
         <v>1956</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="17" t="s">
@@ -2451,14 +2445,14 @@
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="U4" s="49" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="17" t="s">
@@ -2467,7 +2461,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2492,7 +2486,7 @@
         <v>1957</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -2569,7 +2563,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
@@ -2581,7 +2575,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>117</v>
@@ -2590,7 +2584,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H7" s="17">
         <v>1959</v>
@@ -2613,10 +2607,10 @@
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
@@ -2646,7 +2640,7 @@
         <v>1955</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J8" s="57"/>
       <c r="K8" s="54" t="s">
@@ -2659,7 +2653,7 @@
       <c r="P8" s="57"/>
       <c r="Q8" s="57"/>
       <c r="R8" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S8" s="54" t="s">
         <v>88</v>
@@ -2684,17 +2678,17 @@
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
       <c r="G9" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="54">
         <v>1953</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J9" s="57"/>
       <c r="K9" s="54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
@@ -2703,10 +2697,10 @@
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
       <c r="R9" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S9" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
@@ -2728,19 +2722,19 @@
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="17">
         <v>1958</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="17" t="s">
@@ -2748,12 +2742,12 @@
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="17" t="s">
@@ -2764,7 +2758,7 @@
       </c>
       <c r="T10" s="18"/>
       <c r="U10" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="17" t="s">
@@ -2796,17 +2790,17 @@
         <v>1956</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -2817,19 +2811,19 @@
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="49" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2837,7 +2831,7 @@
         <v>81</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>140</v>
@@ -2846,13 +2840,13 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -2861,7 +2855,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="49" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -2896,7 +2890,7 @@
         <v>1958</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
@@ -2916,11 +2910,11 @@
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
       <c r="U13" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V13" s="57"/>
       <c r="W13" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X13" s="57"/>
       <c r="Y13" s="57"/>
@@ -2928,27 +2922,27 @@
     </row>
     <row r="14" spans="1:26" s="58" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
       <c r="G14" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H14" s="54">
         <v>1950</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J14" s="57"/>
       <c r="K14" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
@@ -2960,11 +2954,11 @@
       <c r="S14" s="57"/>
       <c r="T14" s="57"/>
       <c r="U14" s="54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="V14" s="57"/>
       <c r="W14" s="54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X14" s="57"/>
       <c r="Y14" s="57"/>
@@ -2972,16 +2966,16 @@
     </row>
     <row r="15" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2992,7 +2986,7 @@
         <v>1958</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="17" t="s">
@@ -3000,23 +2994,23 @@
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
@@ -3099,7 +3093,7 @@
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>148</v>
@@ -3117,13 +3111,13 @@
         <v>152</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,7 +3125,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>135</v>
@@ -3144,7 +3138,7 @@
         <v>146</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3160,14 +3154,14 @@
         <v>51</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -3180,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>11</v>
@@ -3189,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="17" t="s">
@@ -3204,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>121</v>
@@ -3212,7 +3206,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>28</v>
@@ -3240,7 +3234,7 @@
         <v>146</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -3263,7 +3257,7 @@
         <v>146</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -3286,7 +3280,7 @@
         <v>146</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -3299,17 +3293,17 @@
         <v>80</v>
       </c>
       <c r="C11" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>230</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>231</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -3319,20 +3313,20 @@
         <v>81</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -3345,10 +3339,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="44"/>
@@ -3358,17 +3352,17 @@
     </row>
     <row r="14" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -3377,17 +3371,17 @@
     </row>
     <row r="15" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -3425,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3466,12 +3460,12 @@
       <c r="B2" s="10"/>
       <c r="C2" s="30"/>
       <c r="D2" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="71"/>
       <c r="F2" s="72"/>
       <c r="G2" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
@@ -3481,40 +3475,40 @@
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="186" customHeight="1" x14ac:dyDescent="0.2">
@@ -3522,16 +3516,16 @@
         <v>67</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F4" s="17">
         <v>1956</v>
@@ -3541,7 +3535,7 @@
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>75</v>
@@ -3559,10 +3553,10 @@
         <v>115</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>55</v>
@@ -3575,7 +3569,7 @@
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>126</v>
@@ -3591,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3614,13 +3608,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -3668,7 +3662,7 @@
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -3693,13 +3687,13 @@
         <v>63</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F10" s="56">
         <v>1958</v>
@@ -3725,16 +3719,16 @@
         <v>80</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>31</v>
@@ -3759,16 +3753,16 @@
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
       <c r="E12" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
@@ -3799,30 +3793,30 @@
     </row>
     <row r="14" spans="1:13" s="58" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
@@ -3830,32 +3824,32 @@
     </row>
     <row r="15" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M15" s="46"/>
     </row>
@@ -3887,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3909,7 +3903,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -3932,12 +3926,12 @@
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="64"/>
       <c r="H2" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
@@ -3949,57 +3943,57 @@
     </row>
     <row r="3" spans="1:17" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="O3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>34</v>
@@ -4029,7 +4023,7 @@
     </row>
     <row r="5" spans="1:17" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>53</v>
@@ -4080,10 +4074,10 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>38</v>
@@ -4097,10 +4091,10 @@
     </row>
     <row r="7" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>34</v>
@@ -4113,10 +4107,10 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>38</v>
@@ -4132,10 +4126,10 @@
     </row>
     <row r="8" spans="1:17" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>34</v>
@@ -4163,10 +4157,10 @@
     </row>
     <row r="9" spans="1:17" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>34</v>
@@ -4178,12 +4172,12 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
@@ -4194,7 +4188,7 @@
     </row>
     <row r="10" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>142</v>
@@ -4212,10 +4206,10 @@
         <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>38</v>
@@ -4247,19 +4241,19 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>128</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
@@ -4280,7 +4274,7 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -4288,10 +4282,10 @@
         <v>128</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>43</v>
@@ -4340,29 +4334,29 @@
     </row>
     <row r="14" spans="1:17" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17" t="s">
@@ -4370,36 +4364,36 @@
       </c>
       <c r="N14" s="18"/>
       <c r="O14" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:17" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17" t="s">
@@ -4407,7 +4401,7 @@
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P15" s="46"/>
       <c r="Q15" s="47"/>
@@ -4436,7 +4430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4451,7 +4445,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -4467,10 +4461,10 @@
     </row>
     <row r="3" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>58</v>
@@ -4484,10 +4478,10 @@
     </row>
     <row r="4" spans="1:5" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="17"/>
@@ -4495,7 +4489,7 @@
     </row>
     <row r="5" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>53</v>
@@ -4509,7 +4503,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4517,10 +4511,10 @@
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -4528,10 +4522,10 @@
     </row>
     <row r="8" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -4539,10 +4533,10 @@
     </row>
     <row r="9" spans="1:5" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -4550,7 +4544,7 @@
     </row>
     <row r="10" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>142</v>
@@ -4594,27 +4588,27 @@
     </row>
     <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -4640,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4653,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="77"/>
@@ -4665,7 +4659,7 @@
     </row>
     <row r="3" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>148</v>
@@ -4676,10 +4670,10 @@
     </row>
     <row r="4" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>155</v>
@@ -4687,7 +4681,7 @@
     </row>
     <row r="5" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>53</v>
@@ -4699,46 +4693,46 @@
         <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4770,19 +4764,19 @@
     </row>
     <row r="14" spans="1:3" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -4807,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4823,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -4841,7 +4835,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>148</v>
@@ -4856,43 +4850,43 @@
         <v>125</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>361</v>
+      <c r="F4" s="79">
+        <v>40619</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>360</v>
+      <c r="F5" s="79">
+        <v>40619</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -4900,89 +4894,89 @@
         <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>360</v>
+      <c r="F6" s="79">
+        <v>40619</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>360</v>
+      <c r="F7" s="79">
+        <v>40619</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>235</v>
+      <c r="F8" s="79">
+        <v>39882</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>210</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>235</v>
+      <c r="F9" s="79">
+        <v>39882</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>235</v>
+      <c r="F10" s="79">
+        <v>40619</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,13 +4988,13 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>360</v>
+      <c r="F11" s="79">
+        <v>40619</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5012,13 +5006,13 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>359</v>
+      <c r="F12" s="79">
+        <v>40625</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -5029,25 +5023,29 @@
         <v>66</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>357</v>
+      </c>
       <c r="E13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="79">
+        <v>40625</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F14" s="48">
         <v>39890</v>
@@ -5055,17 +5053,17 @@
     </row>
     <row r="15" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F15" s="48">
         <v>39890</v>
